--- a/biology/Botanique/Tillandsia_fasciculata/Tillandsia_fasciculata.xlsx
+++ b/biology/Botanique/Tillandsia_fasciculata/Tillandsia_fasciculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia fasciculata est une espèce de plantes à fleurs de la famille des Broméliacées originaire d'Amérique centrale et des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia beutelspacheri Matuda
 Tillandsia compressa Bertero ex Schult. &amp; Schult. f.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Antilles.
 </t>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grande plante épiphyte dont les feuilles atteignent 50 cm de long.
 Inflorescence en panicule composé de 3 à 7 épis comprimés. Corolles peu ouvertes, d'un pourpre foncé.</t>
@@ -610,16 +628,18 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 août 2013)[1] et World Checklist of Selected Plant Families (WCSP)  (1 août 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 août 2013) et World Checklist of Selected Plant Families (WCSP)  (1 août 2013) :
 variété Tillandsia fasciculata var. clavispica Mez (1896)
 variété Tillandsia fasciculata var. densispica Mez (1896)
 variété Tillandsia fasciculata var. fasciculata
 variété Tillandsia fasciculata var. laxispica Mez (1896)
-Selon NCBI  (1 août 2013)[3] :
+Selon NCBI  (1 août 2013) :
 variété Tillandsia fasciculata var. fasciculata
-Selon Tropicos                                           (1 août 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Tillandsia fasciculata var. bogotensis André
 variété Tillandsia fasciculata var. clavispica Mez
 variété Tillandsia fasciculata var. convexispica Mez
